--- a/logistics/class-roster.xlsx
+++ b/logistics/class-roster.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A0A8562-AA99-4BDC-BBAE-FC6601833060}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>last_name</t>
   </si>
@@ -52,12 +53,60 @@
   </si>
   <si>
     <t>Karlee</t>
+  </si>
+  <si>
+    <t>Jankowski</t>
+  </si>
+  <si>
+    <t>Sean</t>
+  </si>
+  <si>
+    <t>Hannon</t>
+  </si>
+  <si>
+    <t>Jeff</t>
+  </si>
+  <si>
+    <t>Sevin</t>
+  </si>
+  <si>
+    <t>Katie</t>
+  </si>
+  <si>
+    <t>Bilsback</t>
+  </si>
+  <si>
+    <t>Bill</t>
+  </si>
+  <si>
+    <t>Statile</t>
+  </si>
+  <si>
+    <t>Evan</t>
+  </si>
+  <si>
+    <t>Howell</t>
+  </si>
+  <si>
+    <t>Haley</t>
+  </si>
+  <si>
+    <t>Ulrich</t>
+  </si>
+  <si>
+    <t>Stewart</t>
+  </si>
+  <si>
+    <t>Ubiali</t>
+  </si>
+  <si>
+    <t>Bruno</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -368,21 +417,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -393,7 +442,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -404,7 +453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -415,7 +464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -426,7 +475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -435,6 +484,94 @@
       </c>
       <c r="C5" t="b">
         <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/logistics/class-roster.xlsx
+++ b/logistics/class-roster.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A0A8562-AA99-4BDC-BBAE-FC6601833060}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>last_name</t>
   </si>
@@ -101,12 +100,54 @@
   </si>
   <si>
     <t>Bruno</t>
+  </si>
+  <si>
+    <t>Lee</t>
+  </si>
+  <si>
+    <t>Hyun-Joo (Jay)</t>
+  </si>
+  <si>
+    <t>Kim</t>
+  </si>
+  <si>
+    <t>Solbi</t>
+  </si>
+  <si>
+    <t>Choi</t>
+  </si>
+  <si>
+    <t>Minjin</t>
+  </si>
+  <si>
+    <t>Parker</t>
+  </si>
+  <si>
+    <t>Asia</t>
+  </si>
+  <si>
+    <t>Wallack</t>
+  </si>
+  <si>
+    <t>Matthew</t>
+  </si>
+  <si>
+    <t>Tilley</t>
+  </si>
+  <si>
+    <t>Jackson</t>
+  </si>
+  <si>
+    <t>Kuznetcov</t>
+  </si>
+  <si>
+    <t>Aleksandr</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -417,21 +458,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -442,7 +481,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -453,7 +492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -464,7 +503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -475,7 +514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -486,7 +525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -497,7 +536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -508,7 +547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -519,7 +558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -530,7 +569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -541,7 +580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -552,7 +591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -563,7 +602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -572,6 +611,83 @@
       </c>
       <c r="C13" t="b">
         <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/logistics/class-roster.xlsx
+++ b/logistics/class-roster.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>last_name</t>
   </si>
@@ -142,6 +142,18 @@
   </si>
   <si>
     <t>Aleksandr</t>
+  </si>
+  <si>
+    <t>calc</t>
+  </si>
+  <si>
+    <t>stats</t>
+  </si>
+  <si>
+    <t>Hoffman</t>
+  </si>
+  <si>
+    <t>Mallory</t>
   </si>
 </sst>
 </file>
@@ -459,9 +471,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -470,7 +484,7 @@
     <col min="3" max="3" width="6.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -480,8 +494,14 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -492,7 +512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -502,8 +522,14 @@
       <c r="C3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -513,8 +539,14 @@
       <c r="C4" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -525,7 +557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -535,8 +567,14 @@
       <c r="C6" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -546,8 +584,14 @@
       <c r="C7" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -557,8 +601,14 @@
       <c r="C8" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -568,8 +618,14 @@
       <c r="C9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>19</v>
       </c>
@@ -580,7 +636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -590,8 +646,14 @@
       <c r="C11" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -602,7 +664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>25</v>
       </c>
@@ -613,7 +675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -624,7 +686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -634,8 +696,14 @@
       <c r="C15" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>31</v>
       </c>
@@ -645,8 +713,14 @@
       <c r="C16" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>33</v>
       </c>
@@ -656,8 +730,14 @@
       <c r="C17" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -667,8 +747,14 @@
       <c r="C18" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -679,7 +765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>39</v>
       </c>
@@ -687,6 +773,29 @@
         <v>40</v>
       </c>
       <c r="C20" t="b">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" t="b">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
         <v>1</v>
       </c>
     </row>
